--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H2">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I2">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J2">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.437025499999999</v>
+        <v>33.9967575</v>
       </c>
       <c r="N2">
-        <v>10.874051</v>
+        <v>67.993515</v>
       </c>
       <c r="O2">
-        <v>0.0412690981875492</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P2">
-        <v>0.0335329617600088</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q2">
-        <v>0.9075999482022499</v>
+        <v>10.940088569985</v>
       </c>
       <c r="R2">
-        <v>3.630399792808999</v>
+        <v>43.76035427994</v>
       </c>
       <c r="S2">
-        <v>0.0002800513632280754</v>
+        <v>0.005550121451381497</v>
       </c>
       <c r="T2">
-        <v>0.0001835521480732481</v>
+        <v>0.003648254045853001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H3">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I3">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J3">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.07421266666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N3">
         <v>126.222638</v>
       </c>
       <c r="O3">
-        <v>0.3193593286815545</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P3">
-        <v>0.3892403018250912</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q3">
-        <v>7.023427283340334</v>
+        <v>13.539397487708</v>
       </c>
       <c r="R3">
-        <v>42.140563700042</v>
+        <v>81.23638492624801</v>
       </c>
       <c r="S3">
-        <v>0.00216716670062481</v>
+        <v>0.00686880183415297</v>
       </c>
       <c r="T3">
-        <v>0.00213061685478319</v>
+        <v>0.006772590735480269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H4">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I4">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J4">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01285266666666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N4">
-        <v>0.038558</v>
+        <v>0.329168</v>
       </c>
       <c r="O4">
-        <v>9.755664427884464E-05</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P4">
-        <v>0.0001189036118685133</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q4">
-        <v>0.002145489220333333</v>
+        <v>0.03530853468800001</v>
       </c>
       <c r="R4">
-        <v>0.012872935322</v>
+        <v>0.211851208128</v>
       </c>
       <c r="S4">
-        <v>6.620176456991132E-07</v>
+        <v>1.791271199817948E-05</v>
       </c>
       <c r="T4">
-        <v>6.508525411006718E-07</v>
+        <v>1.766180918526334E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H5">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I5">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J5">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.52055350000001</v>
+        <v>119.609489</v>
       </c>
       <c r="N5">
-        <v>131.041107</v>
+        <v>239.218978</v>
       </c>
       <c r="O5">
-        <v>0.4973260021852153</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P5">
-        <v>0.4040993030123017</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q5">
-        <v>10.93731323547825</v>
+        <v>38.490094341222</v>
       </c>
       <c r="R5">
-        <v>43.74925294191301</v>
+        <v>153.960377364888</v>
       </c>
       <c r="S5">
-        <v>0.003374845368507661</v>
+        <v>0.01952677959619176</v>
       </c>
       <c r="T5">
-        <v>0.002211951799356684</v>
+        <v>0.012835512391635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,114 +785,114 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H6">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I6">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J6">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>18.57371366666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N6">
-        <v>55.721141</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O6">
-        <v>0.1409815740273963</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P6">
-        <v>0.1718306167937836</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q6">
-        <v>3.100500735519833</v>
+        <v>0.055029281522</v>
       </c>
       <c r="R6">
-        <v>18.603004413119</v>
+        <v>0.330175689132</v>
       </c>
       <c r="S6">
-        <v>0.0009566984433966578</v>
+        <v>2.791743356331733E-05</v>
       </c>
       <c r="T6">
-        <v>0.0009405634683562122</v>
+        <v>2.75263949193003E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1669295</v>
+        <v>2.897122</v>
       </c>
       <c r="H7">
-        <v>0.333859</v>
+        <v>8.691366</v>
       </c>
       <c r="I7">
-        <v>0.006785982139841531</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J7">
-        <v>0.005473782762969397</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1273243333333333</v>
+        <v>33.9967575</v>
       </c>
       <c r="N7">
-        <v>0.381973</v>
+        <v>67.993515</v>
       </c>
       <c r="O7">
-        <v>0.0009664402740059944</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P7">
-        <v>0.001177912996946202</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q7">
-        <v>0.02125418730116667</v>
+        <v>98.492754081915</v>
       </c>
       <c r="R7">
-        <v>0.127525123807</v>
+        <v>590.9565244914901</v>
       </c>
       <c r="S7">
-        <v>6.558246438628234E-06</v>
+        <v>0.04996730545083955</v>
       </c>
       <c r="T7">
-        <v>6.447639858961744E-06</v>
+        <v>0.04926741492098959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>8.691366</v>
       </c>
       <c r="I8">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J8">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.437025499999999</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N8">
-        <v>10.874051</v>
+        <v>126.222638</v>
       </c>
       <c r="O8">
-        <v>0.0412690981875492</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P8">
-        <v>0.0335329617600088</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q8">
-        <v>15.751726190611</v>
+        <v>121.8941271492786</v>
       </c>
       <c r="R8">
-        <v>94.51035714366598</v>
+        <v>1097.047144343508</v>
       </c>
       <c r="S8">
-        <v>0.004860392953540555</v>
+        <v>0.06183928087609283</v>
       </c>
       <c r="T8">
-        <v>0.004778421126855331</v>
+        <v>0.09145964992055297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>8.691366</v>
       </c>
       <c r="I9">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J9">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>42.07421266666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N9">
-        <v>126.222638</v>
+        <v>0.329168</v>
       </c>
       <c r="O9">
-        <v>0.3193593286815545</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P9">
-        <v>0.3892403018250912</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q9">
-        <v>121.8941271492787</v>
+        <v>0.3178799514986667</v>
       </c>
       <c r="R9">
-        <v>1097.047144343508</v>
+        <v>2.860919563488</v>
       </c>
       <c r="S9">
-        <v>0.03761196388923198</v>
+        <v>0.0001612667325763048</v>
       </c>
       <c r="T9">
-        <v>0.05546644209288817</v>
+        <v>0.0002385118115266184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>8.691366</v>
       </c>
       <c r="I10">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J10">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01285266666666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N10">
-        <v>0.038558</v>
+        <v>239.218978</v>
       </c>
       <c r="O10">
-        <v>9.755664427884464E-05</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P10">
-        <v>0.0001189036118685133</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q10">
-        <v>0.03723574335866666</v>
+        <v>346.523281990658</v>
       </c>
       <c r="R10">
-        <v>0.335121690228</v>
+        <v>2079.139691943948</v>
       </c>
       <c r="S10">
-        <v>1.148955628419846E-05</v>
+        <v>0.1757980557905215</v>
       </c>
       <c r="T10">
-        <v>1.694367276825241E-05</v>
+        <v>0.1733356577623775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>8.691366</v>
       </c>
       <c r="I11">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J11">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>65.52055350000001</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N11">
-        <v>131.041107</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O11">
-        <v>0.4973260021852153</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P11">
-        <v>0.4040993030123017</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q11">
-        <v>189.821036997027</v>
+        <v>0.4954242790246666</v>
       </c>
       <c r="R11">
-        <v>1138.926221982162</v>
+        <v>4.458818511222</v>
       </c>
       <c r="S11">
-        <v>0.05857166506640019</v>
+        <v>0.0002513384513260649</v>
       </c>
       <c r="T11">
-        <v>0.05758383827474325</v>
+        <v>0.0003717269419079351</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,60 +1163,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.897122</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H12">
-        <v>8.691366</v>
+        <v>1.284274</v>
       </c>
       <c r="I12">
-        <v>0.1177731805878648</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J12">
-        <v>0.1424992269115353</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.57371366666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N12">
-        <v>55.721141</v>
+        <v>67.993515</v>
       </c>
       <c r="O12">
-        <v>0.1409815740273963</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P12">
-        <v>0.1718306167937836</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q12">
-        <v>53.81031448540067</v>
+        <v>14.553717247185</v>
       </c>
       <c r="R12">
-        <v>484.292830368606</v>
+        <v>87.32230348310999</v>
       </c>
       <c r="S12">
-        <v>0.01660384837748997</v>
+        <v>0.007383386137526772</v>
       </c>
       <c r="T12">
-        <v>0.02448573005284644</v>
+        <v>0.007279967272145595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.897122</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H13">
-        <v>8.691366</v>
+        <v>1.284274</v>
       </c>
       <c r="I13">
-        <v>0.1177731805878648</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J13">
-        <v>0.1424992269115353</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1273243333333333</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N13">
-        <v>0.381973</v>
+        <v>126.222638</v>
       </c>
       <c r="O13">
-        <v>0.0009664402740059944</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P13">
-        <v>0.001177912996946202</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q13">
-        <v>0.3688741272353334</v>
+        <v>18.01160579942355</v>
       </c>
       <c r="R13">
-        <v>3.319867145118</v>
+        <v>162.104452194812</v>
       </c>
       <c r="S13">
-        <v>0.0001138207449178935</v>
+        <v>0.009137640804433184</v>
       </c>
       <c r="T13">
-        <v>0.0001678516914338835</v>
+        <v>0.01351447522081894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.476950666666667</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H14">
-        <v>10.430852</v>
+        <v>1.284274</v>
       </c>
       <c r="I14">
-        <v>0.1413442508670433</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J14">
-        <v>0.1710189567472641</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>5.437025499999999</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N14">
-        <v>10.874051</v>
+        <v>0.329168</v>
       </c>
       <c r="O14">
-        <v>0.0412690981875492</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P14">
-        <v>0.0335329617600088</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q14">
-        <v>18.90426943690867</v>
+        <v>0.04697132267022223</v>
       </c>
       <c r="R14">
-        <v>113.425616621452</v>
+        <v>0.422741904032</v>
       </c>
       <c r="S14">
-        <v>0.005833149767277597</v>
+        <v>2.38294730325131E-05</v>
       </c>
       <c r="T14">
-        <v>0.005734772136842608</v>
+        <v>3.524354149123812E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.476950666666667</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H15">
-        <v>10.430852</v>
+        <v>1.284274</v>
       </c>
       <c r="I15">
-        <v>0.1413442508670433</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J15">
-        <v>0.1710189567472641</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.07421266666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N15">
-        <v>126.222638</v>
+        <v>239.218978</v>
       </c>
       <c r="O15">
-        <v>0.3193593286815545</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P15">
-        <v>0.3892403018250912</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q15">
-        <v>146.2899617808418</v>
+        <v>51.20378562532866</v>
       </c>
       <c r="R15">
-        <v>1316.609656027576</v>
+        <v>307.222713751972</v>
       </c>
       <c r="S15">
-        <v>0.04513960506989618</v>
+        <v>0.02597668448231455</v>
       </c>
       <c r="T15">
-        <v>0.06656747034211731</v>
+        <v>0.02561282985173096</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.476950666666667</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H16">
-        <v>10.430852</v>
+        <v>1.284274</v>
       </c>
       <c r="I16">
-        <v>0.1413442508670433</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J16">
-        <v>0.1710189567472641</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01285266666666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N16">
-        <v>0.038558</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O16">
-        <v>9.755664427884464E-05</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P16">
-        <v>0.0001189036118685133</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q16">
-        <v>0.04468808793511111</v>
+        <v>0.07320604385088887</v>
       </c>
       <c r="R16">
-        <v>0.402192791416</v>
+        <v>0.6588543946579999</v>
       </c>
       <c r="S16">
-        <v>1.378907080269592E-05</v>
+        <v>3.713886151363671E-05</v>
       </c>
       <c r="T16">
-        <v>2.033477165523477E-05</v>
+        <v>5.49279879125872E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.476950666666667</v>
+        <v>2.234435</v>
       </c>
       <c r="H17">
-        <v>10.430852</v>
+        <v>4.46887</v>
       </c>
       <c r="I17">
-        <v>0.1413442508670433</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J17">
-        <v>0.1710189567472641</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.52055350000001</v>
+        <v>33.9967575</v>
       </c>
       <c r="N17">
-        <v>131.041107</v>
+        <v>67.993515</v>
       </c>
       <c r="O17">
-        <v>0.4973260021852153</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P17">
-        <v>0.4040993030123017</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q17">
-        <v>227.811732172194</v>
+        <v>75.9635448445125</v>
       </c>
       <c r="R17">
-        <v>1366.870393033164</v>
+        <v>303.85417937805</v>
       </c>
       <c r="S17">
-        <v>0.0702941712155708</v>
+        <v>0.03853779583843782</v>
       </c>
       <c r="T17">
-        <v>0.06910864122346042</v>
+        <v>0.02533199873506221</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.476950666666667</v>
+        <v>2.234435</v>
       </c>
       <c r="H18">
-        <v>10.430852</v>
+        <v>4.46887</v>
       </c>
       <c r="I18">
-        <v>0.1413442508670433</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J18">
-        <v>0.1710189567472641</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.57371366666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N18">
-        <v>55.721141</v>
+        <v>126.222638</v>
       </c>
       <c r="O18">
-        <v>0.1409815740273963</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P18">
-        <v>0.1718306167937836</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q18">
-        <v>64.57988611579245</v>
+        <v>94.01209337984332</v>
       </c>
       <c r="R18">
-        <v>581.2189750421321</v>
+        <v>564.07256027906</v>
       </c>
       <c r="S18">
-        <v>0.01992693496695894</v>
+        <v>0.04769417841719212</v>
       </c>
       <c r="T18">
-        <v>0.02938629282131179</v>
+        <v>0.04702612750866336</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.476950666666667</v>
+        <v>2.234435</v>
       </c>
       <c r="H19">
-        <v>10.430852</v>
+        <v>4.46887</v>
       </c>
       <c r="I19">
-        <v>0.1413442508670433</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J19">
-        <v>0.1710189567472641</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1273243333333333</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N19">
-        <v>0.381973</v>
+        <v>0.329168</v>
       </c>
       <c r="O19">
-        <v>0.0009664402740059944</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P19">
-        <v>0.001177912996946202</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q19">
-        <v>0.4427004256662223</v>
+        <v>0.2451681666933334</v>
       </c>
       <c r="R19">
-        <v>3.984303830996001</v>
+        <v>1.47100900016</v>
       </c>
       <c r="S19">
-        <v>0.0001366007765371173</v>
+        <v>0.0001243786183682066</v>
       </c>
       <c r="T19">
-        <v>0.0002014454518767828</v>
+        <v>0.000122636450838333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.638195</v>
+        <v>2.234435</v>
       </c>
       <c r="H20">
-        <v>25.27639</v>
+        <v>4.46887</v>
       </c>
       <c r="I20">
-        <v>0.5137651856013139</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J20">
-        <v>0.4144188651259724</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.437025499999999</v>
+        <v>119.609489</v>
       </c>
       <c r="N20">
-        <v>10.874051</v>
+        <v>239.218978</v>
       </c>
       <c r="O20">
-        <v>0.0412690981875492</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P20">
-        <v>0.0335329617600088</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q20">
-        <v>68.71418848897248</v>
+        <v>267.259628553715</v>
       </c>
       <c r="R20">
-        <v>274.8567539558899</v>
+        <v>1069.03851421486</v>
       </c>
       <c r="S20">
-        <v>0.02120262588992506</v>
+        <v>0.1355860501526322</v>
       </c>
       <c r="T20">
-        <v>0.01389669195689548</v>
+        <v>0.08912460031076309</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.638195</v>
+        <v>2.234435</v>
       </c>
       <c r="H21">
-        <v>25.27639</v>
+        <v>4.46887</v>
       </c>
       <c r="I21">
-        <v>0.5137651856013139</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J21">
-        <v>0.4144188651259724</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>42.07421266666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N21">
-        <v>126.222638</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O21">
-        <v>0.3193593286815545</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P21">
-        <v>0.3892403018250912</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q21">
-        <v>531.7421041528033</v>
+        <v>0.3821010467983333</v>
       </c>
       <c r="R21">
-        <v>3190.45262491682</v>
+        <v>2.29260628079</v>
       </c>
       <c r="S21">
-        <v>0.1640757047735899</v>
+        <v>0.0001938473535076382</v>
       </c>
       <c r="T21">
-        <v>0.1613085241436452</v>
+        <v>0.0001911321395145612</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>12.638195</v>
+        <v>0.343668</v>
       </c>
       <c r="H22">
-        <v>25.27639</v>
+        <v>1.031004</v>
       </c>
       <c r="I22">
-        <v>0.5137651856013139</v>
+        <v>0.03416573804816039</v>
       </c>
       <c r="J22">
-        <v>0.4144188651259724</v>
+        <v>0.03732774363101014</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01285266666666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N22">
-        <v>0.038558</v>
+        <v>67.993515</v>
       </c>
       <c r="O22">
-        <v>9.755664427884464E-05</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P22">
-        <v>0.0001189036118685133</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q22">
-        <v>0.1624345076033333</v>
+        <v>11.68359765651</v>
       </c>
       <c r="R22">
-        <v>0.9746070456199999</v>
+        <v>70.10158593906</v>
       </c>
       <c r="S22">
-        <v>5.012120745456198E-05</v>
+        <v>0.005927318190148404</v>
       </c>
       <c r="T22">
-        <v>4.92758998899284E-05</v>
+        <v>0.005844294424282668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>12.638195</v>
+        <v>0.343668</v>
       </c>
       <c r="H23">
-        <v>25.27639</v>
+        <v>1.031004</v>
       </c>
       <c r="I23">
-        <v>0.5137651856013139</v>
+        <v>0.03416573804816039</v>
       </c>
       <c r="J23">
-        <v>0.4144188651259724</v>
+        <v>0.03732774363101014</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>65.52055350000001</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N23">
-        <v>131.041107</v>
+        <v>126.222638</v>
       </c>
       <c r="O23">
-        <v>0.4973260021852153</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P23">
-        <v>0.4040993030123017</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q23">
-        <v>828.0615316409326</v>
+        <v>14.459560518728</v>
       </c>
       <c r="R23">
-        <v>3312.24612656373</v>
+        <v>130.136044668552</v>
       </c>
       <c r="S23">
-        <v>0.2555087858170466</v>
+        <v>0.007335618582898845</v>
       </c>
       <c r="T23">
-        <v>0.1674663745525545</v>
+        <v>0.01084930319430683</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>12.638195</v>
+        <v>0.343668</v>
       </c>
       <c r="H24">
-        <v>25.27639</v>
+        <v>1.031004</v>
       </c>
       <c r="I24">
-        <v>0.5137651856013139</v>
+        <v>0.03416573804816039</v>
       </c>
       <c r="J24">
-        <v>0.4144188651259724</v>
+        <v>0.03732774363101014</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>18.57371366666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N24">
-        <v>55.721141</v>
+        <v>0.329168</v>
       </c>
       <c r="O24">
-        <v>0.1409815740273963</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P24">
-        <v>0.1718306167937836</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q24">
-        <v>234.7382151934983</v>
+        <v>0.03770816940800001</v>
       </c>
       <c r="R24">
-        <v>1408.42929116099</v>
+        <v>0.339373524672</v>
       </c>
       <c r="S24">
-        <v>0.07243142454655062</v>
+        <v>1.913009374511447E-05</v>
       </c>
       <c r="T24">
-        <v>0.07120984920557563</v>
+        <v>2.829320865456474E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>12.638195</v>
+        <v>0.343668</v>
       </c>
       <c r="H25">
-        <v>25.27639</v>
+        <v>1.031004</v>
       </c>
       <c r="I25">
-        <v>0.5137651856013139</v>
+        <v>0.03416573804816039</v>
       </c>
       <c r="J25">
-        <v>0.4144188651259724</v>
+        <v>0.03732774363101014</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1273243333333333</v>
+        <v>119.609489</v>
       </c>
       <c r="N25">
-        <v>0.381973</v>
+        <v>239.218978</v>
       </c>
       <c r="O25">
-        <v>0.0009664402740059944</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P25">
-        <v>0.001177912996946202</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q25">
-        <v>1.609149752911667</v>
+        <v>41.105953865652</v>
       </c>
       <c r="R25">
-        <v>9.65489851747</v>
+        <v>246.635723193912</v>
       </c>
       <c r="S25">
-        <v>0.0004965233667472744</v>
+        <v>0.02085385642627993</v>
       </c>
       <c r="T25">
-        <v>0.0004881493674115779</v>
+        <v>0.02056175709268741</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.343668</v>
+      </c>
+      <c r="H26">
+        <v>1.031004</v>
+      </c>
+      <c r="I26">
+        <v>0.03416573804816039</v>
+      </c>
+      <c r="J26">
+        <v>0.03732774363101014</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G26">
-        <v>0.06026333333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.18079</v>
-      </c>
-      <c r="I26">
-        <v>0.002449812068491889</v>
-      </c>
-      <c r="J26">
-        <v>0.002964141106626561</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>5.437025499999999</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N26">
-        <v>10.874051</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O26">
-        <v>0.0412690981875492</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P26">
-        <v>0.0335329617600088</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q26">
-        <v>0.3276532800483333</v>
+        <v>0.05876917545199999</v>
       </c>
       <c r="R26">
-        <v>1.96591968029</v>
+        <v>0.528922579068</v>
       </c>
       <c r="S26">
-        <v>0.0001011015347956348</v>
+        <v>2.981475508809297E-05</v>
       </c>
       <c r="T26">
-        <v>9.939643037977864E-05</v>
+        <v>4.409571107865539E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.06026333333333334</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H27">
-        <v>0.18079</v>
+        <v>11.501204</v>
       </c>
       <c r="I27">
-        <v>0.002449812068491889</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J27">
-        <v>0.002964141106626561</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>42.07421266666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N27">
-        <v>126.222638</v>
+        <v>67.993515</v>
       </c>
       <c r="O27">
-        <v>0.3193593286815545</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P27">
-        <v>0.3892403018250912</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q27">
-        <v>2.535532302668889</v>
+        <v>130.33454778201</v>
       </c>
       <c r="R27">
-        <v>22.81979072402</v>
+        <v>782.00728669206</v>
       </c>
       <c r="S27">
-        <v>0.0007823703375895401</v>
+        <v>0.06612127176791514</v>
       </c>
       <c r="T27">
-        <v>0.001153763178995482</v>
+        <v>0.06519511312248788</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.06026333333333334</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H28">
-        <v>0.18079</v>
+        <v>11.501204</v>
       </c>
       <c r="I28">
-        <v>0.002449812068491889</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J28">
-        <v>0.002964141106626561</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01285266666666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N28">
-        <v>0.038558</v>
+        <v>126.222638</v>
       </c>
       <c r="O28">
-        <v>9.755664427884464E-05</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P28">
-        <v>0.0001189036118685133</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q28">
-        <v>0.0007745445355555555</v>
+        <v>161.3013676729057</v>
       </c>
       <c r="R28">
-        <v>0.00697090082</v>
+        <v>1451.712309056152</v>
       </c>
       <c r="S28">
-        <v>2.389954445158838E-07</v>
+        <v>0.08183134671457194</v>
       </c>
       <c r="T28">
-        <v>3.524470836658303E-07</v>
+        <v>0.1210277062897666</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.06026333333333334</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H29">
-        <v>0.18079</v>
+        <v>11.501204</v>
       </c>
       <c r="I29">
-        <v>0.002449812068491889</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J29">
-        <v>0.002964141106626561</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>65.52055350000001</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N29">
-        <v>131.041107</v>
+        <v>0.329168</v>
       </c>
       <c r="O29">
-        <v>0.4973260021852153</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P29">
-        <v>0.4040993030123017</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q29">
-        <v>3.948486955755</v>
+        <v>0.4206475909191111</v>
       </c>
       <c r="R29">
-        <v>23.69092173453</v>
+        <v>3.785828318272</v>
       </c>
       <c r="S29">
-        <v>0.001218355242128164</v>
+        <v>0.0002134027711838998</v>
       </c>
       <c r="T29">
-        <v>0.001197807355217906</v>
+        <v>0.0003156204675740487</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,87 +2270,87 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.06026333333333334</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H30">
-        <v>0.18079</v>
+        <v>11.501204</v>
       </c>
       <c r="I30">
-        <v>0.002449812068491889</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J30">
-        <v>0.002964141106626561</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.57371366666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N30">
-        <v>55.721141</v>
+        <v>239.218978</v>
       </c>
       <c r="O30">
-        <v>0.1409815740273963</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P30">
-        <v>0.1718306167937836</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q30">
-        <v>1.119313897932222</v>
+        <v>458.5510444415853</v>
       </c>
       <c r="R30">
-        <v>10.07382508139</v>
+        <v>2751.306266649512</v>
       </c>
       <c r="S30">
-        <v>0.000345378361487298</v>
+        <v>0.2326319363895353</v>
       </c>
       <c r="T30">
-        <v>0.0005093301946154502</v>
+        <v>0.2293734679219914</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.06026333333333334</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H31">
-        <v>0.18079</v>
+        <v>11.501204</v>
       </c>
       <c r="I31">
-        <v>0.002449812068491889</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J31">
-        <v>0.002964141106626561</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1273243333333333</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N31">
-        <v>0.381973</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O31">
-        <v>0.0009664402740059944</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P31">
-        <v>0.001177912996946202</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q31">
-        <v>0.007672988741111112</v>
+        <v>0.6555903524964443</v>
       </c>
       <c r="R31">
-        <v>0.06905689867000001</v>
+        <v>5.900313172467999</v>
       </c>
       <c r="S31">
-        <v>2.367597046736493E-06</v>
+        <v>0.000332593841030874</v>
       </c>
       <c r="T31">
-        <v>3.491500334277924E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>5.359705333333333</v>
-      </c>
-      <c r="H32">
-        <v>16.079116</v>
-      </c>
-      <c r="I32">
-        <v>0.2178815887354446</v>
-      </c>
-      <c r="J32">
-        <v>0.2636250273456322</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>5.437025499999999</v>
-      </c>
-      <c r="N32">
-        <v>10.874051</v>
-      </c>
-      <c r="O32">
-        <v>0.0412690981875492</v>
-      </c>
-      <c r="P32">
-        <v>0.0335329617600088</v>
-      </c>
-      <c r="Q32">
-        <v>29.14085456981933</v>
-      </c>
-      <c r="R32">
-        <v>174.845127418916</v>
-      </c>
-      <c r="S32">
-        <v>0.008991776678782277</v>
-      </c>
-      <c r="T32">
-        <v>0.008840127960962358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>5.359705333333333</v>
-      </c>
-      <c r="H33">
-        <v>16.079116</v>
-      </c>
-      <c r="I33">
-        <v>0.2178815887354446</v>
-      </c>
-      <c r="J33">
-        <v>0.2636250273456322</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>42.07421266666667</v>
-      </c>
-      <c r="N33">
-        <v>126.222638</v>
-      </c>
-      <c r="O33">
-        <v>0.3193593286815545</v>
-      </c>
-      <c r="P33">
-        <v>0.3892403018250912</v>
-      </c>
-      <c r="Q33">
-        <v>225.5053820253342</v>
-      </c>
-      <c r="R33">
-        <v>2029.548438228008</v>
-      </c>
-      <c r="S33">
-        <v>0.06958251791062213</v>
-      </c>
-      <c r="T33">
-        <v>0.1026134852126618</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>5.359705333333333</v>
-      </c>
-      <c r="H34">
-        <v>16.079116</v>
-      </c>
-      <c r="I34">
-        <v>0.2178815887354446</v>
-      </c>
-      <c r="J34">
-        <v>0.2636250273456322</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01285266666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.038558</v>
-      </c>
-      <c r="O34">
-        <v>9.755664427884464E-05</v>
-      </c>
-      <c r="P34">
-        <v>0.0001189036118685133</v>
-      </c>
-      <c r="Q34">
-        <v>0.06888650608088888</v>
-      </c>
-      <c r="R34">
-        <v>0.6199785547279999</v>
-      </c>
-      <c r="S34">
-        <v>2.125579664717329E-05</v>
-      </c>
-      <c r="T34">
-        <v>3.134596793033127E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>5.359705333333333</v>
-      </c>
-      <c r="H35">
-        <v>16.079116</v>
-      </c>
-      <c r="I35">
-        <v>0.2178815887354446</v>
-      </c>
-      <c r="J35">
-        <v>0.2636250273456322</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>65.52055350000001</v>
-      </c>
-      <c r="N35">
-        <v>131.041107</v>
-      </c>
-      <c r="O35">
-        <v>0.4973260021852153</v>
-      </c>
-      <c r="P35">
-        <v>0.4040993030123017</v>
-      </c>
-      <c r="Q35">
-        <v>351.170860036902</v>
-      </c>
-      <c r="R35">
-        <v>2107.025160221412</v>
-      </c>
-      <c r="S35">
-        <v>0.1083581794755619</v>
-      </c>
-      <c r="T35">
-        <v>0.106530689806969</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>5.359705333333333</v>
-      </c>
-      <c r="H36">
-        <v>16.079116</v>
-      </c>
-      <c r="I36">
-        <v>0.2178815887354446</v>
-      </c>
-      <c r="J36">
-        <v>0.2636250273456322</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>18.57371366666667</v>
-      </c>
-      <c r="N36">
-        <v>55.721141</v>
-      </c>
-      <c r="O36">
-        <v>0.1409815740273963</v>
-      </c>
-      <c r="P36">
-        <v>0.1718306167937836</v>
-      </c>
-      <c r="Q36">
-        <v>99.54963219903955</v>
-      </c>
-      <c r="R36">
-        <v>895.946689791356</v>
-      </c>
-      <c r="S36">
-        <v>0.03071728933151279</v>
-      </c>
-      <c r="T36">
-        <v>0.04529885105107804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>5.359705333333333</v>
-      </c>
-      <c r="H37">
-        <v>16.079116</v>
-      </c>
-      <c r="I37">
-        <v>0.2178815887354446</v>
-      </c>
-      <c r="J37">
-        <v>0.2636250273456322</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.1273243333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.381973</v>
-      </c>
-      <c r="O37">
-        <v>0.0009664402740059944</v>
-      </c>
-      <c r="P37">
-        <v>0.001177912996946202</v>
-      </c>
-      <c r="Q37">
-        <v>0.6824209084297779</v>
-      </c>
-      <c r="R37">
-        <v>6.141788175868</v>
-      </c>
-      <c r="S37">
-        <v>0.0002105695423183444</v>
-      </c>
-      <c r="T37">
-        <v>0.0003105273460307181</v>
+        <v>0.0004919028138015716</v>
       </c>
     </row>
   </sheetData>
